--- a/data/trans_bre/P23_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 3,48</t>
+          <t>-9,82; 3,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 4,39</t>
+          <t>-8,88; 5,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 0,37</t>
+          <t>-12,04; 0,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 3,24</t>
+          <t>-5,89; 3,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 12,45</t>
+          <t>-28,22; 12,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 15,15</t>
+          <t>-26,09; 18,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 1,87</t>
+          <t>-42,56; 2,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 22,55</t>
+          <t>-30,97; 21,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 7,21</t>
+          <t>-6,52; 7,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 8,98</t>
+          <t>-4,88; 10,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 5,65</t>
+          <t>-7,48; 5,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 6,82</t>
+          <t>-4,0; 7,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 24,19</t>
+          <t>-16,81; 23,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 29,0</t>
+          <t>-13,11; 32,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 22,55</t>
+          <t>-23,53; 22,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 39,83</t>
+          <t>-17,42; 38,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,64; -11,39</t>
+          <t>-26,87; -10,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,59; -1,51</t>
+          <t>-15,74; -1,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -0,8</t>
+          <t>-18,01; -0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 15,36</t>
+          <t>-15,15; 14,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,87; -25,47</t>
+          <t>-56,17; -22,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,08; -3,75</t>
+          <t>-37,28; -4,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,48; -2,11</t>
+          <t>-41,97; -1,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 225,16</t>
+          <t>-52,59; 159,16</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -6,33</t>
+          <t>-15,2; -6,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 1,31</t>
+          <t>-8,18; 0,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,34</t>
+          <t>-3,47; 5,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -3,19</t>
+          <t>-22,32; -3,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,82; -15,34</t>
+          <t>-34,25; -15,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 3,67</t>
+          <t>-19,54; 2,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 15,13</t>
+          <t>-8,79; 15,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,16; -10,48</t>
+          <t>-63,52; -12,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,35; -11,21</t>
+          <t>-24,37; -11,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,92; -5,46</t>
+          <t>-17,12; -6,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,84; -4,59</t>
+          <t>-14,68; -4,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -8,29</t>
+          <t>-20,97; -8,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,49; -24,65</t>
+          <t>-46,76; -25,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,89; -14,81</t>
+          <t>-39,74; -16,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,51; -13,02</t>
+          <t>-35,4; -11,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,23; -29,0</t>
+          <t>-58,57; -29,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -8,57</t>
+          <t>-19,96; -8,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -0,07</t>
+          <t>-10,42; -0,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,1; -4,09</t>
+          <t>-14,81; -3,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 5,34</t>
+          <t>-9,89; 5,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,39; -38,43</t>
+          <t>-61,65; -38,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 0,38</t>
+          <t>-42,84; -0,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -18,93</t>
+          <t>-50,36; -16,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 79,22</t>
+          <t>-48,98; 91,79</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -13,13</t>
+          <t>-17,58; -13,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -7,47</t>
+          <t>-12,09; -7,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -6,31</t>
+          <t>-10,86; -6,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -0,44</t>
+          <t>-9,71; -0,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,81; -34,02</t>
+          <t>-42,92; -33,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -21,07</t>
+          <t>-31,69; -21,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-29,71; -18,94</t>
+          <t>-30,29; -18,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -7,21</t>
+          <t>-37,75; -6,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Clase-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
